--- a/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>STMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,147 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
       </c>
       <c r="J8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,23 +830,32 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -851,8 +880,17 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +906,11 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +950,17 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,49 +1000,67 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>3300</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1100,17 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1123,111 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1600</v>
-      </c>
       <c r="H17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1243,11 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,20 +1255,20 @@
         <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1183,134 +1284,170 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1487,17 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1537,117 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1687,17 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1737,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1787,17 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1837,17 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,20 +1855,20 @@
         <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1675,52 +1884,70 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1987,122 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2118,11 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2138,61 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G41" s="3">
         <v>5800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>8700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,72 +2232,90 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2045,187 +2332,232 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G46" s="3">
         <v>10200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>10000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>2400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G47" s="3">
         <v>14400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>11600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>3700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>3400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G48" s="3">
         <v>8700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>8700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>8600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>8300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>8300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>6800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>3800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>3300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,20 +2570,29 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2632,17 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2682,67 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>7100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>7700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>7800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2782,67 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>31100</v>
+      </c>
+      <c r="G54" s="3">
         <v>40800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>38000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>24900</v>
       </c>
-      <c r="G54" s="3">
-        <v>15200</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K54" s="3">
         <v>14100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>10700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>6700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>4400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>4500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2858,11 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,111 +2878,132 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -2609,82 +3019,100 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>900</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>1900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>1900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +3122,17 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +3172,17 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3222,17 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3272,17 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3322,67 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>8200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>6100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3398,11 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3442,17 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3492,17 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3542,17 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3592,67 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-21100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-17400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-14700</v>
       </c>
-      <c r="G72" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-4400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-3500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-2800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-2200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3692,17 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3742,17 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3792,67 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>24200</v>
+      </c>
+      <c r="G76" s="3">
         <v>35100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>30400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>16700</v>
       </c>
-      <c r="G76" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K76" s="3">
         <v>9900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>8300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>6500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>2200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3892,122 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,19 +4023,22 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3451,28 +4047,37 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +4117,17 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +4167,17 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4217,17 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4267,17 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4317,67 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,13 +4393,16 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
@@ -3749,34 +4411,43 @@
         <v>-500</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4487,17 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4537,67 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>300</v>
+      </c>
+      <c r="G94" s="3">
         <v>3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4613,11 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4657,17 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4707,17 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4757,17 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4807,67 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-4900</v>
-      </c>
-      <c r="E100" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>600</v>
       </c>
       <c r="H100" s="3">
         <v>3500</v>
       </c>
       <c r="I100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>600</v>
+      </c>
+      <c r="K100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4907,63 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>STMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
@@ -778,7 +782,7 @@
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -786,29 +790,32 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,26 +846,29 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,24 +1040,24 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>3300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1050,8 +1070,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1000</v>
       </c>
       <c r="N17" s="3">
         <v>1000</v>
       </c>
       <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
       </c>
       <c r="N18" s="3">
         <v>-700</v>
       </c>
       <c r="O18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,32 +1279,33 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1293,84 +1327,90 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-600</v>
       </c>
       <c r="N21" s="3">
         <v>-600</v>
       </c>
       <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1379,13 +1419,13 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,32 +1913,35 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1893,61 +1963,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2400</v>
       </c>
       <c r="L41" s="3">
         <v>2400</v>
       </c>
       <c r="M41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2250,26 +2343,26 @@
         <v>1300</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
       </c>
       <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2277,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2288,26 +2381,29 @@
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2413,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,217 +2449,229 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E47" s="3">
         <v>3000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>14400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>200</v>
-      </c>
-      <c r="P47" s="3">
-        <v>100</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>100</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E48" s="3">
         <v>14700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8700</v>
       </c>
       <c r="H48" s="3">
         <v>8700</v>
       </c>
       <c r="I48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J48" s="3">
         <v>8600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>8300</v>
       </c>
       <c r="K48" s="3">
         <v>8300</v>
       </c>
       <c r="L48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="M48" s="3">
         <v>6800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E49" s="3">
         <v>22100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,8 +2690,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2588,11 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2703,46 +2823,49 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>7100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1600</v>
       </c>
       <c r="K52" s="3">
         <v>1600</v>
       </c>
       <c r="L52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E54" s="3">
         <v>44500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,132 +3011,139 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E58" s="3">
         <v>8900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3800</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -3028,61 +3165,67 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E60" s="3">
         <v>13500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3090,32 +3233,32 @@
         <v>3100</v>
       </c>
       <c r="E61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>1900</v>
       </c>
       <c r="K61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L61" s="3">
         <v>2000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E66" s="3">
         <v>19000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-43500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-37100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,43 +3984,46 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E76" s="3">
         <v>25500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>4200</v>
       </c>
       <c r="O76" s="3">
         <v>4200</v>
@@ -3846,13 +4032,16 @@
         <v>4200</v>
       </c>
       <c r="Q76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R76" s="3">
         <v>2200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4224,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -4041,7 +4240,7 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4056,28 +4255,31 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-500</v>
       </c>
       <c r="M89" s="3">
         <v>-500</v>
       </c>
       <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>3400</v>
       </c>
       <c r="H94" s="3">
         <v>3400</v>
       </c>
       <c r="I94" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-500</v>
       </c>
       <c r="N94" s="3">
         <v>-500</v>
       </c>
       <c r="O94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>STMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,116 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
         <v>5200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -776,7 +783,7 @@
         <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
@@ -785,43 +792,49 @@
         <v>300</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,32 +862,38 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,41 +1062,47 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,17 +1112,23 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
-        <v>15200</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,38 +1345,40 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1330,108 +1397,120 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-16600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1439,61 +1518,73 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-18600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-18600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,38 +2049,44 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1966,64 +2105,76 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,49 +2513,55 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2384,43 +2569,49 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2440,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2452,232 +2649,256 @@
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F46" s="3">
         <v>5000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F47" s="3">
         <v>2600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>4500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>4100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>14400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>11600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F48" s="3">
         <v>16600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>14700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>15000</v>
       </c>
       <c r="G48" s="3">
         <v>14700</v>
       </c>
       <c r="H48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J48" s="3">
         <v>8700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>8700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F49" s="3">
         <v>22000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>22100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>7400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,20 +2914,26 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>7100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F54" s="3">
         <v>46400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>44500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>29100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>31100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>40800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>38000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>24900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>14400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>14100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,144 +3271,158 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F58" s="3">
         <v>9600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
@@ -3168,103 +3441,115 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F60" s="3">
         <v>14600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F61" s="3">
         <v>3100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3277,31 +3562,37 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F66" s="3">
         <v>19900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>19000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-49000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-48100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-43500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-37100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-17400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F76" s="3">
         <v>26500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>25500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>18700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>24200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>35100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>30400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>8300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>9900</v>
       </c>
       <c r="M76" s="3">
         <v>8300</v>
       </c>
       <c r="N76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="O76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="P76" s="3">
         <v>6500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>4200</v>
       </c>
       <c r="Q76" s="3">
         <v>4200</v>
       </c>
       <c r="R76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T76" s="3">
         <v>2200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,28 +4620,30 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4258,13 +4655,13 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4273,13 +4670,19 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1800</v>
-      </c>
       <c r="G89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-500</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>3400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-4900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>STMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,132 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
         <v>5500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5200</v>
       </c>
       <c r="F8" s="3">
         <v>5200</v>
       </c>
       <c r="G8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
@@ -798,7 +802,7 @@
         <v>300</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -806,38 +810,41 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -868,35 +875,38 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,19 +1085,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1088,24 +1108,24 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>3400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1118,8 +1138,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E17" s="3">
         <v>8500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1000</v>
       </c>
       <c r="Q17" s="3">
         <v>1000</v>
       </c>
       <c r="R17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-700</v>
       </c>
       <c r="Q18" s="3">
         <v>-700</v>
       </c>
       <c r="R18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,41 +1380,42 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1403,102 +1437,108 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-600</v>
       </c>
       <c r="Q21" s="3">
         <v>-600</v>
       </c>
       <c r="R21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1507,13 +1547,13 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,41 +2122,44 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2111,70 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2400</v>
       </c>
       <c r="O41" s="3">
         <v>2400</v>
       </c>
       <c r="P41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,44 +2609,47 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1300</v>
       </c>
       <c r="G43" s="3">
         <v>1300</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2564,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -2575,35 +2668,38 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,8 +2709,8 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2637,13 +2733,16 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
@@ -2655,253 +2754,265 @@
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E46" s="3">
         <v>7700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="E47" s="3">
         <v>2900</v>
       </c>
       <c r="F47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G47" s="3">
         <v>2600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3">
         <v>200</v>
-      </c>
-      <c r="S47" s="3">
-        <v>100</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>100</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E48" s="3">
         <v>19400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>8700</v>
       </c>
       <c r="K48" s="3">
         <v>8700</v>
       </c>
       <c r="L48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="M48" s="3">
         <v>8600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>8300</v>
       </c>
       <c r="N48" s="3">
         <v>8300</v>
       </c>
       <c r="O48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="P48" s="3">
         <v>6800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E49" s="3">
         <v>82200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>20500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,8 +3031,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2929,11 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,19 +3167,22 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3071,46 +3191,49 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>7100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1600</v>
       </c>
       <c r="N52" s="3">
         <v>1600</v>
       </c>
       <c r="O52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E54" s="3">
         <v>112300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,159 +3403,166 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E58" s="3">
         <v>12400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
         <v>12600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -3447,112 +3584,118 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E60" s="3">
         <v>33500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3100</v>
       </c>
       <c r="G61" s="3">
         <v>3100</v>
       </c>
       <c r="H61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>1900</v>
       </c>
       <c r="N61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O61" s="3">
         <v>2000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3568,17 +3711,20 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3594,8 +3740,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E66" s="3">
         <v>42900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
       </c>
       <c r="R66" s="3">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-49000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-43500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-37100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,52 +4541,55 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E76" s="3">
         <v>69400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>4200</v>
       </c>
       <c r="R76" s="3">
         <v>4200</v>
@@ -4412,13 +4598,16 @@
         <v>4200</v>
       </c>
       <c r="T76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U76" s="3">
         <v>2200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,22 +4820,23 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
       </c>
       <c r="F83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
         <v>600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -4646,7 +4845,7 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4661,28 +4860,31 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1000</v>
+        <v>-3700</v>
       </c>
       <c r="E89" s="3">
         <v>-1000</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="G89" s="3">
-        <v>-2300</v>
+        <v>-600</v>
       </c>
       <c r="H89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-500</v>
       </c>
       <c r="P89" s="3">
         <v>-500</v>
       </c>
       <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>3400</v>
       </c>
       <c r="K94" s="3">
         <v>3400</v>
       </c>
       <c r="L94" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-500</v>
       </c>
       <c r="Q94" s="3">
         <v>-500</v>
       </c>
       <c r="R94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>STMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,139 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E8" s="3">
         <v>10500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5200</v>
       </c>
       <c r="G8" s="3">
         <v>5200</v>
       </c>
       <c r="H8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
@@ -805,7 +809,7 @@
         <v>300</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -813,41 +817,44 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E9" s="3">
         <v>7800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -878,38 +885,41 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,11 +1119,11 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1111,24 +1131,24 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1141,8 +1161,8 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E17" s="3">
         <v>13600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1000</v>
       </c>
       <c r="R17" s="3">
         <v>1000</v>
       </c>
       <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-700</v>
       </c>
       <c r="R18" s="3">
         <v>-700</v>
       </c>
       <c r="S18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,44 +1414,45 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1440,108 +1474,114 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-600</v>
       </c>
       <c r="R21" s="3">
         <v>-600</v>
       </c>
       <c r="S21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1550,13 +1590,13 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,44 +2192,47 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2184,73 +2254,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
-      </c>
-      <c r="O41" s="3">
-        <v>2400</v>
       </c>
       <c r="P41" s="3">
         <v>2400</v>
       </c>
       <c r="Q41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,47 +2702,50 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1300</v>
       </c>
       <c r="H43" s="3">
         <v>1300</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2660,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -2671,38 +2764,41 @@
       <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2808,8 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2736,16 +2832,19 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
@@ -2757,235 +2856,247 @@
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E46" s="3">
         <v>11400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3500</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2900</v>
       </c>
       <c r="F47" s="3">
         <v>2900</v>
       </c>
       <c r="G47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H47" s="3">
         <v>2600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3">
         <v>200</v>
-      </c>
-      <c r="T47" s="3">
-        <v>100</v>
       </c>
       <c r="U47" s="3">
         <v>100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>100</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E48" s="3">
         <v>19300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>8700</v>
       </c>
       <c r="L48" s="3">
         <v>8700</v>
       </c>
       <c r="M48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="N48" s="3">
         <v>8600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>8300</v>
       </c>
       <c r="O48" s="3">
         <v>8300</v>
       </c>
       <c r="P48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,29 +3104,29 @@
         <v>77200</v>
       </c>
       <c r="E49" s="3">
+        <v>77200</v>
+      </c>
+      <c r="F49" s="3">
         <v>82200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3034,8 +3145,8 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3043,11 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3179,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3194,46 +3314,49 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>7100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1600</v>
       </c>
       <c r="O52" s="3">
         <v>1600</v>
       </c>
       <c r="P52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
-      </c>
-      <c r="T52" s="3">
-        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E54" s="3">
         <v>111500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>112300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,168 +3534,175 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E58" s="3">
         <v>8200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
         <v>13600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -3587,118 +3724,124 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E60" s="3">
         <v>28700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E61" s="3">
         <v>4900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3100</v>
       </c>
       <c r="H61" s="3">
         <v>3100</v>
       </c>
       <c r="I61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
         <v>1900</v>
       </c>
       <c r="O61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P61" s="3">
         <v>2000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3714,20 +3857,23 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3743,8 +3889,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E66" s="3">
         <v>37700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
       </c>
       <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-51400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-49000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-43500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-37100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,55 +4727,58 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E76" s="3">
         <v>73800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>4200</v>
       </c>
       <c r="S76" s="3">
         <v>4200</v>
@@ -4601,13 +4787,16 @@
         <v>4200</v>
       </c>
       <c r="U76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V76" s="3">
         <v>2200</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,16 +5029,16 @@
         <v>1500</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -4848,7 +5047,7 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4863,28 +5062,31 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5202,61 +5419,64 @@
         <v>-3700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1000</v>
+        <v>-3700</v>
       </c>
       <c r="F89" s="3">
         <v>-1000</v>
       </c>
       <c r="G89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-500</v>
       </c>
       <c r="Q89" s="3">
         <v>-500</v>
       </c>
       <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5288,61 +5509,64 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>3400</v>
       </c>
       <c r="L94" s="3">
         <v>3400</v>
       </c>
       <c r="M94" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-500</v>
       </c>
       <c r="R94" s="3">
         <v>-500</v>
       </c>
       <c r="S94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E100" s="3">
         <v>4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>STMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,143 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F8" s="3">
         <v>10600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10500</v>
       </c>
-      <c r="F8" s="3">
-        <v>5500</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
@@ -803,7 +810,7 @@
         <v>300</v>
       </c>
       <c r="Q8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
@@ -812,55 +819,61 @@
         <v>300</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9100</v>
+        <v>3400</v>
       </c>
       <c r="E9" s="3">
         <v>7800</v>
       </c>
       <c r="F9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H9" s="3">
         <v>3500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,44 +901,50 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1000</v>
       </c>
       <c r="H10" s="3">
         <v>1800</v>
       </c>
       <c r="I10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -953,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,53 +1141,59 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>52500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1164,40 +1203,46 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1238,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>66500</v>
+      </c>
+      <c r="F17" s="3">
         <v>15100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13600</v>
       </c>
-      <c r="F17" s="3">
-        <v>8500</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-14200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,50 +1480,52 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>7500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1477,132 +1544,144 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="F21" s="3">
         <v>4400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6600</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-16600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
@@ -1610,73 +1689,85 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="F23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-18200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,31 +2115,37 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-1700</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2065,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,50 +2328,56 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2257,76 +2396,88 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-18200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-18200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,13 +2884,19 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
@@ -2720,46 +2905,46 @@
         <v>1100</v>
       </c>
       <c r="G43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -2767,55 +2952,61 @@
       <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F44" s="3">
         <v>2800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2835,22 +3026,28 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
@@ -2859,280 +3056,304 @@
         <v>500</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F46" s="3">
         <v>17100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1000</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F47" s="3">
         <v>4000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>14400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>11600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3">
         <v>200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F48" s="3">
         <v>20000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>19300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>19400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>16400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>16600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>14700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>15000</v>
       </c>
       <c r="K48" s="3">
         <v>14700</v>
       </c>
       <c r="L48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="N48" s="3">
         <v>8700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>36800</v>
+      </c>
+      <c r="F49" s="3">
         <v>77200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>77200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>82200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>20500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>22000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>22100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3148,20 +3369,26 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3302,61 +3541,67 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>7100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>57200</v>
+      </c>
+      <c r="F54" s="3">
         <v>118300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>111500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>112300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>45000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>46400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>44500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>29100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>31100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>40800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>38000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>24900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>14400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>14100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,180 +3794,194 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>7000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F58" s="3">
         <v>5200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>12400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>9400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>9600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>8900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+      <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3800</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
@@ -3727,76 +4000,88 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F60" s="3">
         <v>19400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>28700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>33500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>13500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3804,50 +4089,50 @@
         <v>3200</v>
       </c>
       <c r="E61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G61" s="3">
         <v>4900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3860,26 +4145,32 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F62" s="3">
         <v>5400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3892,11 +4183,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3925,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F66" s="3">
         <v>29700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>37700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>42900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>20000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>19900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>19000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-119800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-115800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-60500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-63200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-54600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-51400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-49000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-48100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-43500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-37100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-17400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F76" s="3">
         <v>88600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>73800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>69400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>25000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>26500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>25500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>18700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>24200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>35100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>30400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>16700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>8300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>9900</v>
       </c>
       <c r="Q76" s="3">
         <v>8300</v>
       </c>
       <c r="R76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="S76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="T76" s="3">
         <v>6500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>4200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>4200</v>
       </c>
       <c r="U76" s="3">
         <v>4200</v>
       </c>
       <c r="V76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X76" s="3">
         <v>2200</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-18200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,40 +5415,42 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -5065,13 +5462,13 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5080,13 +5477,19 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5509,64 +5950,70 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-500</v>
       </c>
       <c r="O91" s="3">
         <v>-300</v>
       </c>
       <c r="P91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-900</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1100</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6530,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F100" s="3">
         <v>7400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1400</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F102" s="3">
         <v>4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>STMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,116 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,40 +782,40 @@
         <v>4200</v>
       </c>
       <c r="E8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G8" s="3">
         <v>9200</v>
       </c>
-      <c r="F8" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10500</v>
-      </c>
       <c r="H8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>400</v>
@@ -816,7 +824,7 @@
         <v>300</v>
       </c>
       <c r="S8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T8" s="3">
         <v>300</v>
@@ -825,61 +833,67 @@
         <v>300</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F9" s="3">
         <v>3400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>9100</v>
       </c>
       <c r="G9" s="3">
         <v>7800</v>
       </c>
       <c r="H9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J9" s="3">
         <v>3500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,50 +921,56 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1800</v>
-      </c>
       <c r="I10" s="3">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="J10" s="3">
         <v>1800</v>
       </c>
       <c r="K10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -978,8 +998,14 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1104,14 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,59 +1181,65 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>52500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,28 +1249,34 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1238,17 +1284,17 @@
       <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>500</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1289,8 +1335,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1365,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F17" s="3">
         <v>8300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>66500</v>
       </c>
-      <c r="F17" s="3">
-        <v>15100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>13600</v>
-      </c>
       <c r="H17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J17" s="3">
         <v>8200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-57300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="R18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,56 +1548,58 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1550,82 +1618,94 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-53400</v>
       </c>
-      <c r="F21" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-6600</v>
-      </c>
       <c r="H21" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-16600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-4700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,61 +1713,61 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
+        <v>800</v>
+      </c>
+      <c r="M22" s="3">
+        <v>900</v>
+      </c>
+      <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
@@ -1695,79 +1775,91 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-55300</v>
       </c>
-      <c r="F23" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-18600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-4900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1929,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2006,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-55300</v>
       </c>
-      <c r="F26" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-4900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-55200</v>
       </c>
-      <c r="F27" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-18200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-4900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,37 +2237,43 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1700</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2192,8 +2314,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,56 +2468,62 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2402,82 +2542,94 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-55200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-18200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-4900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2699,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-55200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-18200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-4900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2920,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>900</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,19 +3070,25 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1100</v>
       </c>
       <c r="G43" s="3">
         <v>1000</v>
@@ -2911,46 +3097,46 @@
         <v>1100</v>
       </c>
       <c r="I43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
@@ -2958,61 +3144,67 @@
       <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F44" s="3">
         <v>3500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3032,28 +3224,34 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
@@ -3062,304 +3260,328 @@
         <v>500</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
+        <v>500</v>
+      </c>
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F46" s="3">
         <v>8300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>20800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>17100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>7700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>10200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1000</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>700</v>
+      </c>
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>4000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>14400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>11600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>3400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="3">
         <v>200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>100</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F48" s="3">
         <v>16400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>16800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>20000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>19300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>19400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>16400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>16600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>14700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>15000</v>
       </c>
       <c r="M48" s="3">
         <v>14700</v>
       </c>
       <c r="N48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="P48" s="3">
         <v>8700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>8300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F49" s="3">
         <v>18100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>36800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>77200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>77200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>82200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>20500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>22000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>22100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3375,20 +3597,26 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3763,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3547,61 +3787,67 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
-      </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>7100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>7800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3917,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>40800</v>
+      </c>
+      <c r="F54" s="3">
         <v>43800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>57200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>118300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>111500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>112300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>45000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>46400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>44500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>29100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>31100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>40800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>38000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>24900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>14400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>14100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2200</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,150 +4056,164 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>8200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>12400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
-      </c>
-      <c r="T58" s="3">
-        <v>200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y58" s="3">
         <v>500</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3947,47 +4221,47 @@
         <v>1300</v>
       </c>
       <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G59" s="3">
         <v>12800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>12600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3800</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
@@ -4006,139 +4280,151 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>19400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>28700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>33500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>14500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>13500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="E61" s="3">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="F61" s="3">
         <v>3200</v>
       </c>
       <c r="G61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I61" s="3">
         <v>4900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4151,32 +4437,38 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F62" s="3">
         <v>3700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4189,11 +4481,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4222,8 +4514,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F66" s="3">
         <v>15400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>24600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>29700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>37700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>42900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>20000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-123300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-119800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-115800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-60500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-63200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-54600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-51400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-49000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-48100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-43500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-37100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-9300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-600</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5467,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F76" s="3">
         <v>28400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>32600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>88600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>73800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>69400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>25000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>26500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>25500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>18700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>24200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>35100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>30400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>16700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>8300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>9900</v>
       </c>
       <c r="S76" s="3">
         <v>8300</v>
       </c>
       <c r="T76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="U76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="V76" s="3">
         <v>6500</v>
-      </c>
-      <c r="U76" s="3">
-        <v>4200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>4200</v>
       </c>
       <c r="W76" s="3">
         <v>4200</v>
       </c>
       <c r="X76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>2200</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5621,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-55200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-18200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-4900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,46 +5813,48 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5468,13 +5866,13 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -5483,13 +5881,19 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6271,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-300</v>
       </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6381,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-500</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
       <c r="R91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-900</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6608,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>900</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +7022,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>7400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>3500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1400</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +7176,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>STMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,170 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E8" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F8" s="3">
         <v>4200</v>
       </c>
       <c r="G8" s="3">
-        <v>9200</v>
+        <v>4100</v>
       </c>
       <c r="H8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J8" s="3">
         <v>5400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>400</v>
@@ -830,7 +837,7 @@
         <v>300</v>
       </c>
       <c r="U8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V8" s="3">
         <v>300</v>
@@ -839,67 +846,73 @@
         <v>300</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F9" s="3">
         <v>3500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3400</v>
       </c>
-      <c r="G9" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -927,56 +940,62 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1000</v>
       </c>
       <c r="L10" s="3">
         <v>1800</v>
       </c>
       <c r="M10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,8 +1023,14 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,28 +1220,34 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>52500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1216,36 +1255,36 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,17 +1294,23 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,16 +1318,16 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -1290,17 +1335,17 @@
       <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="K15" s="3">
+        <v>500</v>
+      </c>
+      <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1341,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8300</v>
       </c>
-      <c r="G17" s="3">
-        <v>66500</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>15300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-57300</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-14200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-4800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,62 +1615,64 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J20" s="3">
         <v>7400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1624,156 +1691,168 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
-        <v>-53400</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J21" s="3">
         <v>5400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-16600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>3</v>
@@ -1781,85 +1860,97 @@
       <c r="AA22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-55300</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-18600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-55300</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-18600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-55200</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J27" s="3">
         <v>3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-18200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2252,34 +2373,34 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1700</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2320,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,62 +2607,68 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-7400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2548,88 +2687,100 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-55200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-18200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-55200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-18200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>900</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,25 +3255,31 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1100</v>
       </c>
       <c r="I43" s="3">
         <v>1000</v>
@@ -3103,46 +3288,46 @@
         <v>1100</v>
       </c>
       <c r="K43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
@@ -3150,67 +3335,73 @@
       <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F44" s="3">
         <v>3100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3230,34 +3421,40 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
@@ -3266,126 +3463,138 @@
         <v>500</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>500</v>
+      </c>
+      <c r="R45" s="3">
         <v>3900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F46" s="3">
         <v>7800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>20800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>17100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>11400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>10200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1000</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3393,201 +3602,213 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>4000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>14400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>11600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>3700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>800</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="3">
         <v>200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>100</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F48" s="3">
         <v>16500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>15900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>16400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>16800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>20000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>19300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>19400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>16400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>16600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>14700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>15000</v>
       </c>
       <c r="O48" s="3">
         <v>14700</v>
       </c>
       <c r="P48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="R48" s="3">
         <v>8700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>8600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>8300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>8300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>6800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>3300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1000</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F49" s="3">
         <v>17600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>17900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>18100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>36800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>77200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>77200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>82200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>20500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>22000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>22100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>7400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3603,20 +3824,26 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3793,61 +4032,67 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
-      </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>7100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>7700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>7800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>100</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F54" s="3">
         <v>41900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>40800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>43800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>57200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>118300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>111500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>112300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>45000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>46400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>44500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>29100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>31100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>40800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>38000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>24900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>14400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>14100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2200</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,167 +4317,181 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>8200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>12400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>9400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>8900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
-      </c>
-      <c r="V58" s="3">
-        <v>200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>200</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA58" s="3">
         <v>500</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>1400</v>
@@ -4227,47 +4500,47 @@
         <v>1300</v>
       </c>
       <c r="G59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
         <v>12800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>13600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3800</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
@@ -4286,151 +4559,163 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>19400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>28700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>33500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>14500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>14600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>13500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="Z60" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3200</v>
       </c>
       <c r="H61" s="3">
         <v>3200</v>
       </c>
       <c r="I61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4443,38 +4728,44 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F62" s="3">
         <v>6600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4487,11 +4778,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4520,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F66" s="3">
         <v>16100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>24600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>29700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>37700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>42900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>20000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
-      <c r="Z66" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-133100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-122700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-123300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-119800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-115800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-60500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-63200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-54600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-51400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-49000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-48100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-43500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-37100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-17400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-14700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-9300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-600</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F76" s="3">
         <v>25800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>25200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>28400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>32600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>88600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>73800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>69400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>25000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>26500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>25500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>18700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>24200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>35100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>30400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>16700</v>
-      </c>
-      <c r="S76" s="3">
-        <v>8300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>9900</v>
       </c>
       <c r="U76" s="3">
         <v>8300</v>
       </c>
       <c r="V76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="W76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="X76" s="3">
         <v>6500</v>
-      </c>
-      <c r="W76" s="3">
-        <v>4200</v>
-      </c>
-      <c r="X76" s="3">
-        <v>4200</v>
       </c>
       <c r="Y76" s="3">
         <v>4200</v>
       </c>
       <c r="Z76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AB76" s="3">
         <v>2200</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-55200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-18200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,52 +6210,54 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5872,13 +6269,13 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -5887,13 +6284,19 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>-300</v>
       </c>
       <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6822,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-500</v>
       </c>
       <c r="S91" s="3">
         <v>-300</v>
       </c>
       <c r="T91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-900</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7513,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>7400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>3500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2800</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>2500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>1400</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1700</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>1100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>STMH</t>
   </si>
@@ -6829,8 +6829,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>STMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,176 +665,184 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4100</v>
       </c>
       <c r="H8" s="3">
         <v>4200</v>
       </c>
       <c r="I8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
-      </c>
-      <c r="S8" s="3">
-        <v>400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>400</v>
@@ -843,7 +851,7 @@
         <v>300</v>
       </c>
       <c r="W8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X8" s="3">
         <v>300</v>
@@ -852,73 +860,79 @@
         <v>300</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3500</v>
       </c>
-      <c r="G9" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
@@ -946,62 +960,68 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>700</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1000</v>
       </c>
       <c r="N10" s="3">
         <v>1800</v>
       </c>
       <c r="O10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1049,14 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1086,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1171,14 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,71 +1260,77 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>8700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>3400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1300,22 +1340,28 @@
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
@@ -1324,16 +1370,16 @@
         <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="J15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -1341,17 +1387,17 @@
       <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="M15" s="3">
+        <v>500</v>
+      </c>
+      <c r="N15" s="3">
+        <v>500</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1392,8 +1438,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1472,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F17" s="3">
         <v>6700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J17" s="3">
         <v>8300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>15300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-11000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-14200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-4800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-500</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,68 +1683,70 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
-        <v>200</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1697,94 +1765,106 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-10500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-16600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-3400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-4700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-500</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1792,13 +1872,13 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1810,55 +1890,55 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>3</v>
@@ -1866,91 +1946,103 @@
       <c r="AC22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-18600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-4900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-500</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2124,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2213,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-18600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-4900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-500</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-18200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-4900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-500</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2480,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2373,40 +2495,40 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>800</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-52200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-1100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2447,8 +2569,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2658,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,68 +2747,74 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2693,94 +2833,106 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-10400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-55200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-18200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-500</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3014,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-10400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-55200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-18200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-500</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3234,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3267,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>8700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>900</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,31 +3441,37 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1100</v>
       </c>
       <c r="K43" s="3">
         <v>1000</v>
@@ -3294,46 +3480,46 @@
         <v>1100</v>
       </c>
       <c r="M43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>100</v>
@@ -3341,73 +3527,79 @@
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F44" s="3">
         <v>2000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3427,40 +3619,46 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
@@ -3469,132 +3667,144 @@
         <v>500</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>500</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
+        <v>500</v>
+      </c>
+      <c r="T45" s="3">
         <v>3900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F46" s="3">
         <v>3900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>20800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>17100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>10200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1000</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3608,213 +3818,225 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>4100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>14400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>11600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>3400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>800</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB47" s="3">
         <v>200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>100</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F48" s="3">
         <v>15400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>16000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>16500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>15900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>16400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>16800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>19300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>19400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>16400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>16600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>14700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>15000</v>
       </c>
       <c r="Q48" s="3">
         <v>14700</v>
       </c>
       <c r="R48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="T48" s="3">
         <v>8700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>8700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>8600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>8300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>8300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>3800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>3300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>2700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1000</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F49" s="3">
         <v>9400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>9500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>17600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>17900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>18100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>36800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>77200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>77200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>82200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>20500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>22000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>22100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>7300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>7400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3830,20 +4052,26 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4153,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4242,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4038,61 +4278,67 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>7100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>7700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>7800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>100</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4420,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F54" s="3">
         <v>28700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>31000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>41900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>40800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>43800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>57200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>118300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>111500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>112300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>45000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>46400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>44500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>29100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>31100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>40800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>38000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>24900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>14400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>14100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>6700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>2200</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4546,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,185 +4579,199 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>12400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>9400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>8900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>500</v>
-      </c>
-      <c r="X58" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>200</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC58" s="3">
         <v>500</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1300</v>
       </c>
       <c r="G59" s="3">
         <v>1400</v>
@@ -4506,47 +4780,47 @@
         <v>1300</v>
       </c>
       <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
         <v>12800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>12600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3800</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
@@ -4565,163 +4839,175 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>19400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>28700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>33500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>14500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>13500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>600</v>
       </c>
-      <c r="AB60" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
         <v>1200</v>
       </c>
       <c r="F61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>3200</v>
       </c>
       <c r="J61" s="3">
         <v>3200</v>
       </c>
       <c r="K61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M61" s="3">
         <v>4900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4734,44 +5020,50 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F62" s="3">
         <v>6300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4784,11 +5076,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4817,8 +5109,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5198,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5287,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,8 +5376,14 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5075,82 +5391,88 @@
         <v>16000</v>
       </c>
       <c r="E66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G66" s="3">
         <v>15400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>24600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>29700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>37700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>42900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>19000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>600</v>
       </c>
-      <c r="AB66" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5502,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5587,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5676,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5765,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5854,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-136200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-133100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-122700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-123300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-119800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-115800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-60500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-63200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-54600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-51400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-49000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-48100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-37100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-21100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-17400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-14700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-11500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-9300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-4400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-600</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6032,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6121,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6210,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F76" s="3">
         <v>12700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>15600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>25800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>25200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>28400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>32600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>88600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>73800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>69400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>25000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>26500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>25500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>18700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>24200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>35100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>30400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>16700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>8300</v>
-      </c>
-      <c r="V76" s="3">
-        <v>9900</v>
       </c>
       <c r="W76" s="3">
         <v>8300</v>
       </c>
       <c r="X76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="Z76" s="3">
         <v>6500</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>4200</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>4200</v>
       </c>
       <c r="AA76" s="3">
         <v>4200</v>
       </c>
       <c r="AB76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AD76" s="3">
         <v>2200</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6388,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-10400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-55200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-18200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-500</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,58 +6608,60 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
-        <v>700</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>500</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -6275,13 +6673,13 @@
         <v>200</v>
       </c>
       <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
         <v>100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>0</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
@@ -6290,13 +6688,19 @@
         <v>0</v>
       </c>
       <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6782,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6871,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6960,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7049,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7138,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-300</v>
       </c>
       <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7264,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6839,76 +7281,82 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-500</v>
       </c>
       <c r="U91" s="3">
         <v>-300</v>
       </c>
       <c r="V91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-1800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-900</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7438,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7527,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>3300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L94" s="3">
+        <v>900</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
+        <v>200</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>100</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>3400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>3400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7653,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7738,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7827,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7916,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +8005,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L100" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P100" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>4800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N100" s="3">
-        <v>400</v>
-      </c>
-      <c r="O100" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-4900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>4500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>3500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>2800</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>2500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>1400</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +8183,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>3000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1700</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
